--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="C2" t="n">
         <v>26300.98007520667</v>
@@ -26323,10 +26325,10 @@
         <v>26300.98007520668</v>
       </c>
       <c r="F2" t="n">
+        <v>26300.98007520668</v>
+      </c>
+      <c r="G2" t="n">
         <v>26300.98007520667</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26300.98007520668</v>
       </c>
       <c r="H2" t="n">
         <v>26300.98007520667</v>
@@ -26338,10 +26340,10 @@
         <v>26300.98007520667</v>
       </c>
       <c r="K2" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="L2" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="M2" t="n">
         <v>26300.98007520667</v>
@@ -26350,7 +26352,7 @@
         <v>26300.98007520667</v>
       </c>
       <c r="O2" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="P2" t="n">
         <v>26300.98007520667</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-7326.619924793322</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7326.619924793329</v>
+      </c>
+      <c r="D6" t="n">
         <v>-7326.619924793325</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-7326.619924793325</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-7326.619924793329</v>
       </c>
       <c r="E6" t="n">
         <v>26300.98007520668</v>
       </c>
       <c r="F6" t="n">
+        <v>26300.98007520668</v>
+      </c>
+      <c r="G6" t="n">
         <v>26300.98007520667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26300.98007520668</v>
       </c>
       <c r="H6" t="n">
         <v>26300.98007520667</v>
@@ -26546,10 +26548,10 @@
         <v>26300.98007520667</v>
       </c>
       <c r="K6" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="L6" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="M6" t="n">
         <v>26300.98007520667</v>
@@ -26558,7 +26560,7 @@
         <v>26300.98007520667</v>
       </c>
       <c r="O6" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="P6" t="n">
         <v>26300.98007520667</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128062.5296872163</v>
+        <v>116118.3011061461</v>
       </c>
     </row>
     <row r="7">
@@ -26322,10 +26322,10 @@
         <v>26300.98007520667</v>
       </c>
       <c r="E2" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="F2" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="G2" t="n">
         <v>26300.98007520667</v>
@@ -26334,7 +26334,7 @@
         <v>26300.98007520667</v>
       </c>
       <c r="I2" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="J2" t="n">
         <v>26300.98007520667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7326.619924793322</v>
+        <v>-8754.213418938223</v>
       </c>
       <c r="C6" t="n">
-        <v>-7326.619924793329</v>
+        <v>-8754.21341893823</v>
       </c>
       <c r="D6" t="n">
-        <v>-7326.619924793325</v>
+        <v>-8754.21341893823</v>
       </c>
       <c r="E6" t="n">
-        <v>26300.98007520668</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="F6" t="n">
-        <v>26300.98007520668</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="G6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="H6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="I6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106178</v>
       </c>
       <c r="J6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="K6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="L6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="M6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="N6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="O6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
       <c r="P6" t="n">
-        <v>26300.98007520667</v>
+        <v>24873.38658106177</v>
       </c>
     </row>
   </sheetData>
